--- a/data/trans_bre/POLIPATOLOGIA_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_2-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.799895737261969</v>
+        <v>2.687426602261453</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.973795220822675</v>
+        <v>3.977627124875331</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.694720618239925</v>
+        <v>2.447404460915987</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.47474429536117</v>
+        <v>1.993855075901374</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6573856006770334</v>
+        <v>0.6940663465845628</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8911054617924705</v>
+        <v>0.8751538457517513</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4133150208544766</v>
+        <v>0.3617058993270479</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.06901361109635391</v>
+        <v>0.07813546243013622</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.285845482521916</v>
+        <v>8.004697330142202</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.15651667471806</v>
+        <v>10.34400793484188</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.72315164513819</v>
+        <v>9.205323900009265</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.85822161260696</v>
+        <v>17.02910070196534</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6.087890307213689</v>
+        <v>5.1732944579445</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5.864991588909549</v>
+        <v>5.143056044660545</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.612895043425851</v>
+        <v>3.802172544667671</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.647823882040312</v>
+        <v>2.415981969739662</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.394164506861134</v>
+        <v>7.13786988731728</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.237711556634537</v>
+        <v>1.293167179571987</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.031502268558138</v>
+        <v>3.026208628191615</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.292769274721421</v>
+        <v>4.460533548323382</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.325494741057296</v>
+        <v>1.223670558285375</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1538527915845588</v>
+        <v>0.1348196873378653</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2290836618756071</v>
+        <v>0.37087234942683</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3623626566643883</v>
+        <v>0.283622126262646</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.90744361496082</v>
+        <v>13.7199410905793</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.711452927879667</v>
+        <v>7.815704696217275</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.224802347535244</v>
+        <v>9.505568184608782</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15.32002759049089</v>
+        <v>15.25223423377156</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.265457001390953</v>
+        <v>4.212944271993139</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.378151836123822</v>
+        <v>1.337378273045715</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.011380594117519</v>
+        <v>2.10219921677948</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.737452761507659</v>
+        <v>1.643435869637274</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>7.155436684541599</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14.4411572525861</v>
+        <v>14.44115725258611</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9398746500526457</v>
@@ -849,7 +849,7 @@
         <v>0.773104758159229</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1.036803281706948</v>
+        <v>1.036803281706949</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.957642100955983</v>
+        <v>5.027848738319471</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>9.436428996252777</v>
+        <v>9.349495735560483</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.71880694518129</v>
+        <v>3.708205510302836</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10.04995772951438</v>
+        <v>10.25124671820468</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4113571029843274</v>
+        <v>0.4395928991802801</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8013321003255759</v>
+        <v>0.7919182443860882</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3259668879489964</v>
+        <v>0.3350496252521581</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.6122878430523626</v>
+        <v>0.6112413538728086</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.7277132152577</v>
+        <v>12.83541215796477</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.2570517319695</v>
+        <v>17.46132280506594</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.95417181104821</v>
+        <v>10.92715511829615</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.66944037780252</v>
+        <v>18.6965201640557</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.571310537069617</v>
+        <v>1.572580066807381</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.010015369344787</v>
+        <v>2.092875874334273</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.40724950560006</v>
+        <v>1.458523972634958</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.583202013522776</v>
+        <v>1.630148441135072</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.4585706597682668</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.428089485579238</v>
+        <v>0.4280894855792382</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.31906273826011</v>
+        <v>7.911105760448918</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>11.35802823730269</v>
+        <v>11.08012065219458</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.914501413634935</v>
+        <v>4.769974950784643</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8.225048920096132</v>
+        <v>8.049440179060644</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4116201536560756</v>
+        <v>0.4303464486335029</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6005548606012153</v>
+        <v>0.5663777573526372</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2047350584053644</v>
+        <v>0.2036701415862851</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2479283796396037</v>
+        <v>0.2447934369239974</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>18.59941645199891</v>
+        <v>18.09448335015735</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>21.67594954093649</v>
+        <v>21.41102761100168</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.2269444292443</v>
+        <v>14.72791455341715</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.60943050377204</v>
+        <v>17.55956023651681</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.360165731679632</v>
+        <v>1.345970105807391</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.547348846603579</v>
+        <v>1.466432466651914</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.797724661915609</v>
+        <v>0.7724430504149412</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6480377450508817</v>
+        <v>0.6621858141434785</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>17.56249077283295</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10.42753174786579</v>
+        <v>10.4275317478658</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2298028235497424</v>
@@ -1049,7 +1049,7 @@
         <v>0.476081528604035</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2267012674007223</v>
+        <v>0.2267012674007225</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.024491038278156</v>
+        <v>3.252578479200097</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>13.56055419464834</v>
+        <v>14.25008875037281</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10.84169405528735</v>
+        <v>10.48187157069187</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.051777417922401</v>
+        <v>5.023431870583305</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.04325301587561535</v>
+        <v>0.06860662148219797</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3116217159082849</v>
+        <v>0.3211740139940482</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2635168947048984</v>
+        <v>0.2526169437249344</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.09854112226700214</v>
+        <v>0.1047828441265071</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.15372978618637</v>
+        <v>16.3207519204656</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>26.50184024235748</v>
+        <v>27.83289289108908</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23.50386705713045</v>
+        <v>24.32752131493639</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.58535100420445</v>
+        <v>15.15904402117249</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4225135697429709</v>
+        <v>0.4196769692416108</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7257669624826985</v>
+        <v>0.7701366396620907</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6929350233227879</v>
+        <v>0.7153322119113923</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.360249000788961</v>
+        <v>0.3588613950635444</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>13.02121200654638</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14.87671155579932</v>
+        <v>14.87671155579929</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3788806036797999</v>
@@ -1149,7 +1149,7 @@
         <v>0.2291706134203434</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.2610752545250026</v>
+        <v>0.2610752545250022</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>12.82435372988973</v>
+        <v>12.61309817890726</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.162851363216034</v>
+        <v>-2.397646762131524</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5.702614383352579</v>
+        <v>5.605543546213944</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10.24857394056223</v>
+        <v>9.481273439743807</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2224611146630253</v>
+        <v>0.2161830059268739</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.02798740136865093</v>
+        <v>-0.02965298634384109</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09115192424114862</v>
+        <v>0.09337924579241266</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1711617153060317</v>
+        <v>0.1542460879349977</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>26.49840933553285</v>
+        <v>27.39008707043072</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>12.11779541549342</v>
+        <v>12.0483144330153</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19.91903704669167</v>
+        <v>20.2845664282947</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20.37374962938231</v>
+        <v>20.40007808635104</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5559977888681606</v>
+        <v>0.5518522014559972</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1807333515169491</v>
+        <v>0.1837526619653788</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3737656402785922</v>
+        <v>0.3891963277386844</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3783439607364688</v>
+        <v>0.3806811149893005</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.767759473104729</v>
+        <v>3.179646964547635</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.111127854066338</v>
+        <v>1.352700562706387</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3949308211268908</v>
+        <v>0.8640513675641506</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.420986399765209</v>
+        <v>3.677798975339161</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.04347028060853092</v>
+        <v>0.04467201042400452</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02470343361795362</v>
+        <v>0.01975961202486742</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.005843628994008349</v>
+        <v>0.01010358521821954</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.04400539423789099</v>
+        <v>0.04651115649837484</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.3815734275307</v>
+        <v>18.70149282747372</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.13376009434031</v>
+        <v>14.24659978229781</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.33509343696922</v>
+        <v>13.79107014821971</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.75303488585649</v>
+        <v>14.03909417781184</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2881212944570804</v>
+        <v>0.3034304182763317</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1825652915471438</v>
+        <v>0.1871520330722199</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2076840030289972</v>
+        <v>0.1944173702050993</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1948425142956911</v>
+        <v>0.1985452253653686</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>12.25404931600061</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13.84507328291944</v>
+        <v>13.84507328291943</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6944307060345484</v>
@@ -1349,7 +1349,7 @@
         <v>0.5137612355914719</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.4287387594793571</v>
+        <v>0.428738759479357</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>11.61448257315639</v>
+        <v>11.54035036629175</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>11.94748617635813</v>
+        <v>12.0070660174868</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9.891735771404624</v>
+        <v>9.938620953766078</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11.65618045609701</v>
+        <v>11.72196331910054</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.558456971142125</v>
+        <v>0.5511661661304204</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.468408631342777</v>
+        <v>0.4669861267593349</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3961111639622841</v>
+        <v>0.3957404182144609</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3486687978580059</v>
+        <v>0.3490866996803231</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>15.69414905361409</v>
+        <v>15.90142994263494</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>16.62520699170365</v>
+        <v>16.48751344847118</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14.52128500711948</v>
+        <v>14.37831685882074</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>16.03953280433106</v>
+        <v>15.8591686859326</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8491599732600669</v>
+        <v>0.856267715632872</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7109067120664876</v>
+        <v>0.7135286238355802</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.634697123621167</v>
+        <v>0.6325275125920438</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5159469507089938</v>
+        <v>0.510518457161782</v>
       </c>
     </row>
     <row r="28">
